--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil Rajora\OneDrive\Desktop\python file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C99746-E787-47FB-9054-D604F42000D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80DE5AF-F241-463D-93EC-B2F5A4C97D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4AC7C7-9A74-47A1-9957-ED9C0E4BCC2E}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4AC7C7-9A74-47A1-9957-ED9C0E4BCC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EC0127-ECD0-4977-89C2-06F995A878D5}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,9 +519,6 @@
       <c r="A14">
         <v>3256</v>
       </c>
-      <c r="B14">
-        <v>24000</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -615,9 +612,6 @@
       <c r="A26">
         <v>6574</v>
       </c>
-      <c r="B26">
-        <v>24000</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -686,9 +680,6 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7569</v>
-      </c>
-      <c r="B35">
-        <v>300000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">

--- a/salaries.xlsx
+++ b/salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil Rajora\OneDrive\Desktop\python file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80DE5AF-F241-463D-93EC-B2F5A4C97D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E84B2-E783-47A8-993A-D5B8D4984FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4AC7C7-9A74-47A1-9957-ED9C0E4BCC2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E4AC7C7-9A74-47A1-9957-ED9C0E4BCC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EC0127-ECD0-4977-89C2-06F995A878D5}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,9 +439,6 @@
       <c r="A4">
         <v>2587</v>
       </c>
-      <c r="B4">
-        <v>78000</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -487,9 +484,6 @@
       <c r="A10">
         <v>6548</v>
       </c>
-      <c r="B10">
-        <v>78000</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -731,9 +725,6 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>3265</v>
-      </c>
       <c r="B42">
         <v>26000</v>
       </c>
@@ -774,9 +765,6 @@
       <c r="A47">
         <v>2654</v>
       </c>
-      <c r="B47">
-        <v>47000</v>
-      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -814,9 +802,6 @@
       <c r="A52">
         <v>1562</v>
       </c>
-      <c r="B52">
-        <v>26000</v>
-      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -838,9 +823,6 @@
       <c r="A55">
         <v>3549</v>
       </c>
-      <c r="B55">
-        <v>78000</v>
-      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -967,7 +949,7 @@
         <v>3569</v>
       </c>
       <c r="B71">
-        <v>78000</v>
+        <v>855800</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1039,7 +1021,7 @@
         <v>3256</v>
       </c>
       <c r="B80">
-        <v>52000</v>
+        <v>52822</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +1045,7 @@
         <v>7521</v>
       </c>
       <c r="B83">
-        <v>30000</v>
+        <v>855000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1079,7 +1061,7 @@
         <v>7569</v>
       </c>
       <c r="B85">
-        <v>78000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1151,7 +1133,7 @@
         <v>3259</v>
       </c>
       <c r="B94">
-        <v>26000</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,9 +1187,6 @@
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>6125</v>
-      </c>
-      <c r="B101">
-        <v>82000</v>
       </c>
     </row>
   </sheetData>
